--- a/excel.xlsx
+++ b/excel.xlsx
@@ -19,9 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>单元格测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,18 +392,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
